--- a/data_pulling/team_game_logs_1819/team_game_log_DEN.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_DEN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -274,6 +274,9 @@
     <t>LAL</t>
   </si>
   <si>
+    <t>MEM</t>
+  </si>
+  <si>
     <t>LAC</t>
   </si>
   <si>
@@ -283,9 +286,6 @@
     <t>CLE</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>2018-12-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T02:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +972,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>47581</v>
@@ -2310,7 +2316,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>47675</v>
@@ -2534,7 +2540,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>47681</v>
@@ -3206,7 +3212,7 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>47727</v>
@@ -6471,10 +6477,10 @@
         <v>28</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV26">
         <v>28</v>
@@ -6495,10 +6501,10 @@
         <v>28</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BD26">
         <v>28</v>
@@ -6555,6 +6561,454 @@
         <v>73</v>
       </c>
       <c r="BV26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27">
+        <v>47949</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>106</v>
+      </c>
+      <c r="K27">
+        <v>106</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <v>61</v>
+      </c>
+      <c r="Q27">
+        <v>61</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="S27">
+        <v>27</v>
+      </c>
+      <c r="T27">
+        <v>44.3</v>
+      </c>
+      <c r="U27">
+        <v>36</v>
+      </c>
+      <c r="V27">
+        <v>36</v>
+      </c>
+      <c r="W27">
+        <v>9</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>97</v>
+      </c>
+      <c r="AA27">
+        <v>97</v>
+      </c>
+      <c r="AB27">
+        <v>36</v>
+      </c>
+      <c r="AC27">
+        <v>36</v>
+      </c>
+      <c r="AD27">
+        <v>37.1</v>
+      </c>
+      <c r="AE27">
+        <v>21</v>
+      </c>
+      <c r="AF27">
+        <v>21</v>
+      </c>
+      <c r="AG27">
+        <v>17</v>
+      </c>
+      <c r="AH27">
+        <v>17</v>
+      </c>
+      <c r="AI27">
+        <v>81</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>16</v>
+      </c>
+      <c r="AT27">
+        <v>23</v>
+      </c>
+      <c r="AU27">
+        <v>23</v>
+      </c>
+      <c r="AV27">
+        <v>16</v>
+      </c>
+      <c r="AW27">
+        <v>16</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>16</v>
+      </c>
+      <c r="BB27">
+        <v>23</v>
+      </c>
+      <c r="BC27">
+        <v>23</v>
+      </c>
+      <c r="BD27">
+        <v>16</v>
+      </c>
+      <c r="BE27">
+        <v>-8</v>
+      </c>
+      <c r="BF27">
+        <v>-8</v>
+      </c>
+      <c r="BG27">
+        <v>28</v>
+      </c>
+      <c r="BH27">
+        <v>28</v>
+      </c>
+      <c r="BI27">
+        <v>98</v>
+      </c>
+      <c r="BJ27">
+        <v>98</v>
+      </c>
+      <c r="BK27">
+        <v>37</v>
+      </c>
+      <c r="BL27">
+        <v>37</v>
+      </c>
+      <c r="BM27">
+        <v>11</v>
+      </c>
+      <c r="BN27">
+        <v>11</v>
+      </c>
+      <c r="BO27">
+        <v>48</v>
+      </c>
+      <c r="BP27">
+        <v>48</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>1</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>47967</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>99</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>49</v>
+      </c>
+      <c r="Q28">
+        <v>49</v>
+      </c>
+      <c r="R28">
+        <v>30</v>
+      </c>
+      <c r="S28">
+        <v>30</v>
+      </c>
+      <c r="T28">
+        <v>61.2</v>
+      </c>
+      <c r="U28">
+        <v>28</v>
+      </c>
+      <c r="V28">
+        <v>28</v>
+      </c>
+      <c r="W28">
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>32.1</v>
+      </c>
+      <c r="Z28">
+        <v>77</v>
+      </c>
+      <c r="AA28">
+        <v>77</v>
+      </c>
+      <c r="AB28">
+        <v>39</v>
+      </c>
+      <c r="AC28">
+        <v>39</v>
+      </c>
+      <c r="AD28">
+        <v>50.6</v>
+      </c>
+      <c r="AE28">
+        <v>23</v>
+      </c>
+      <c r="AF28">
+        <v>23</v>
+      </c>
+      <c r="AG28">
+        <v>18</v>
+      </c>
+      <c r="AH28">
+        <v>18</v>
+      </c>
+      <c r="AI28">
+        <v>78.3</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>17</v>
+      </c>
+      <c r="AT28">
+        <v>19</v>
+      </c>
+      <c r="AU28">
+        <v>19</v>
+      </c>
+      <c r="AV28">
+        <v>17</v>
+      </c>
+      <c r="AW28">
+        <v>17</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>17</v>
+      </c>
+      <c r="BB28">
+        <v>19</v>
+      </c>
+      <c r="BC28">
+        <v>19</v>
+      </c>
+      <c r="BD28">
+        <v>17</v>
+      </c>
+      <c r="BE28">
+        <v>6</v>
+      </c>
+      <c r="BF28">
+        <v>6</v>
+      </c>
+      <c r="BG28">
+        <v>22</v>
+      </c>
+      <c r="BH28">
+        <v>22</v>
+      </c>
+      <c r="BI28">
+        <v>105</v>
+      </c>
+      <c r="BJ28">
+        <v>105</v>
+      </c>
+      <c r="BK28">
+        <v>29</v>
+      </c>
+      <c r="BL28">
+        <v>29</v>
+      </c>
+      <c r="BM28">
+        <v>11</v>
+      </c>
+      <c r="BN28">
+        <v>11</v>
+      </c>
+      <c r="BO28">
+        <v>40</v>
+      </c>
+      <c r="BP28">
+        <v>40</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>1</v>
+      </c>
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV28">
         <v>99</v>
       </c>
     </row>
